--- a/downloads/3.Ventas Por País 1.xlsx
+++ b/downloads/3.Ventas Por País 1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Datos\Cursos\Curso Power Tools para auditores I\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\Personales\Curso-de-Herramientas-analiticas-para-auditoria-I\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA866FC3-8A52-4462-843C-A3D41B90088D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF73775-C671-43A1-BB36-140F20EDEC93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35235" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{B8F924D1-209B-481F-B627-3237FE097B40}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{B8F924D1-209B-481F-B627-3237FE097B40}"/>
   </bookViews>
   <sheets>
-    <sheet name="Colombia" sheetId="1" r:id="rId1"/>
+    <sheet name="España" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="CARTAGENA">OFFSET(#REF!,0,0,COUNTA(#REF!),COUNTA(#REF!))</definedName>
